--- a/y_n.xlsx
+++ b/y_n.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cspit-IT\3 Sem\SGP\004\Library management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAF0A7C-2B72-4A4A-A52B-C1EABB5DC5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE8120-87C1-4CD2-913D-7286A9C2A6F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="2">
   <si>
     <t>y</t>
   </si>
@@ -34,6 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3689,6 +3690,9 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
         <v>0</v>
       </c>
     </row>
